--- a/Datasets/SeperateCountryFiles/Saint_Kitts_And_Nevis.xlsx
+++ b/Datasets/SeperateCountryFiles/Saint_Kitts_And_Nevis.xlsx
@@ -16,8 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd;"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -48,9 +49,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -348,265 +355,377 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="27" customWidth="1" min="1" max="1"/>
+    <col width="27" customWidth="1" min="2" max="2"/>
+    <col width="27" customWidth="1" min="3" max="3"/>
+    <col width="27" customWidth="1" min="4" max="4"/>
+    <col width="27" customWidth="1" min="5" max="5"/>
+    <col width="27" customWidth="1" min="6" max="6"/>
+    <col width="27" customWidth="1" min="7" max="7"/>
+    <col width="27" customWidth="1" min="8" max="8"/>
+    <col width="27" customWidth="1" min="9" max="9"/>
+    <col width="27" customWidth="1" min="10" max="10"/>
+    <col width="27" customWidth="1" min="11" max="11"/>
+    <col width="27" customWidth="1" min="12" max="12"/>
+    <col width="27" customWidth="1" min="13" max="13"/>
+    <col width="27" customWidth="1" min="14" max="14"/>
+    <col width="27" customWidth="1" min="15" max="15"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>No Of Sit_Rep</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>CountryID</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>WorldRegion</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>CountryName</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>TotalConfirmedCases</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>TotalConfirmedNewCases</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>TotalDeaths</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>TotalNewDeaths</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">TransmissionClassification </t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>DaysSinceLastReportedCase</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>RowNo.</t>
-        </is>
-      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>MasterSheet RowNo.</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="2" t="n">
         <v>241</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">LATIN AMER. &amp; CARIB    </t>
         </is>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="3" t="n">
         <v>43916</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Saint Kitts and Nevis</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="G2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>Imported cases only</t>
         </is>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="K2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="n">
         <v>4367</v>
       </c>
+      <c r="M2" s="2" t="n"/>
+      <c r="N2" s="2" t="n"/>
+      <c r="O2" s="2" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="2" t="n">
         <v>241</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">LATIN AMER. &amp; CARIB    </t>
         </is>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="3" t="n">
         <v>43917</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>Saint Kitts and Nevis</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="G3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
         <is>
           <t>Imported cases only</t>
         </is>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="2" t="n">
         <v>4561</v>
       </c>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="2" t="n">
         <v>241</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">LATIN AMER. &amp; CARIB    </t>
         </is>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="3" t="n">
         <v>43918</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>Saint Kitts and Nevis</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="G4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>Imported cases only</t>
         </is>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="2" t="n">
         <v>4759</v>
       </c>
+      <c r="M4" s="2" t="n"/>
+      <c r="N4" s="2" t="n"/>
+      <c r="O4" s="2" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="2" t="n">
         <v>241</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">LATIN AMER. &amp; CARIB    </t>
         </is>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="3" t="n">
         <v>43919</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>Saint Kitts and Nevis</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="G5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>Imported cases only</t>
         </is>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5" s="2" t="n">
         <v>4962</v>
       </c>
+      <c r="M5" s="2" t="n"/>
+      <c r="N5" s="2" t="n"/>
+      <c r="O5" s="2" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="2" t="n">
         <v>241</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">LATIN AMER. &amp; CARIB    </t>
         </is>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="3" t="n">
         <v>43920</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>Saint Kitts and Nevis</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="G6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>Imported cases only</t>
         </is>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="K6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2" t="n">
         <v>5163</v>
       </c>
+      <c r="M6" s="2" t="n"/>
+      <c r="N6" s="2" t="n"/>
+      <c r="O6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>241</v>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LATIN AMER. &amp; CARIB    </t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>Saint Kitts and Nevis</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>Imported cases only</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>5368</v>
+      </c>
+      <c r="M7" s="2" t="n"/>
+      <c r="N7" s="2" t="n"/>
+      <c r="O7" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Datasets/SeperateCountryFiles/Saint_Kitts_And_Nevis.xlsx
+++ b/Datasets/SeperateCountryFiles/Saint_Kitts_And_Nevis.xlsx
@@ -1,37 +1,94 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunsl_000\Desktop\COVID-19 By Country\COVID-19-By-Country\Datasets\SeperateCountryFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679015F0-CD13-4F41-830C-E2B0098FAC97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Saint_Kitts_And_Nevis" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Saint_Kitts_And_Nevis" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+  <si>
+    <t>No Of Sit_Rep</t>
+  </si>
+  <si>
+    <t>CountryID</t>
+  </si>
+  <si>
+    <t>Continent</t>
+  </si>
+  <si>
+    <t>Sub-Region</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>CountryName</t>
+  </si>
+  <si>
+    <t>TotalConfirmedCases</t>
+  </si>
+  <si>
+    <t>TotalConfirmedNewCases</t>
+  </si>
+  <si>
+    <t>TotalDeaths</t>
+  </si>
+  <si>
+    <t>TotalNewDeaths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TransmissionClassification </t>
+  </si>
+  <si>
+    <t>DaysSinceLastReportedCase</t>
+  </si>
+  <si>
+    <t>MasterSheet RowNo.</t>
+  </si>
+  <si>
+    <t>Caribbean</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Imported cases only</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,20 +106,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -350,382 +415,318 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="27" customWidth="1" min="1" max="1"/>
-    <col width="27" customWidth="1" min="2" max="2"/>
-    <col width="27" customWidth="1" min="3" max="3"/>
-    <col width="27" customWidth="1" min="4" max="4"/>
-    <col width="27" customWidth="1" min="5" max="5"/>
-    <col width="27" customWidth="1" min="6" max="6"/>
-    <col width="27" customWidth="1" min="7" max="7"/>
-    <col width="27" customWidth="1" min="8" max="8"/>
-    <col width="27" customWidth="1" min="9" max="9"/>
-    <col width="27" customWidth="1" min="10" max="10"/>
-    <col width="27" customWidth="1" min="11" max="11"/>
-    <col width="27" customWidth="1" min="12" max="12"/>
-    <col width="27" customWidth="1" min="13" max="13"/>
-    <col width="27" customWidth="1" min="14" max="14"/>
-    <col width="27" customWidth="1" min="15" max="15"/>
+    <col min="1" max="15" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>No Of Sit_Rep</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>CountryID</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>WorldRegion</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>CountryName</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>TotalConfirmedCases</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>TotalConfirmedNewCases</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>TotalDeaths</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>TotalNewDeaths</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TransmissionClassification </t>
-        </is>
-      </c>
-      <c r="K1" s="2" t="inlineStr">
-        <is>
-          <t>DaysSinceLastReportedCase</t>
-        </is>
-      </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>MasterSheet RowNo.</t>
-        </is>
-      </c>
-      <c r="M1" s="2" t="n"/>
-      <c r="N1" s="2" t="n"/>
-      <c r="O1" s="2" t="n"/>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>66</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>241</v>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LATIN AMER. &amp; CARIB    </t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="n">
+      <c r="B2" s="1">
+        <v>237</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2">
         <v>43916</v>
       </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Saint Kitts and Nevis</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="H2" s="1">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>Imported cases only</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2" t="n">
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>4367</v>
       </c>
-      <c r="M2" s="2" t="n"/>
-      <c r="N2" s="2" t="n"/>
-      <c r="O2" s="2" t="n"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>67</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>241</v>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LATIN AMER. &amp; CARIB    </t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="n">
+      <c r="B3" s="1">
+        <v>237</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2">
         <v>43917</v>
       </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>Saint Kitts and Nevis</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1">
         <v>2</v>
       </c>
-      <c r="G3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>Imported cases only</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="n">
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="1">
         <v>1</v>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="M3" s="1">
         <v>4561</v>
       </c>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
-      <c r="O3" s="2" t="n"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>68</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>241</v>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LATIN AMER. &amp; CARIB    </t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="n">
+      <c r="B4" s="1">
+        <v>237</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2">
         <v>43918</v>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>Saint Kitts and Nevis</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1">
         <v>2</v>
       </c>
-      <c r="G4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>Imported cases only</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="n">
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="1">
         <v>2</v>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="M4" s="1">
         <v>4759</v>
       </c>
-      <c r="M4" s="2" t="n"/>
-      <c r="N4" s="2" t="n"/>
-      <c r="O4" s="2" t="n"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>69</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>241</v>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LATIN AMER. &amp; CARIB    </t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="n">
+      <c r="B5" s="1">
+        <v>237</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2">
         <v>43919</v>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>Saint Kitts and Nevis</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1">
         <v>2</v>
       </c>
-      <c r="G5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>Imported cases only</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="n">
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="1">
         <v>3</v>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="M5" s="1">
         <v>4962</v>
       </c>
-      <c r="M5" s="2" t="n"/>
-      <c r="N5" s="2" t="n"/>
-      <c r="O5" s="2" t="n"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>70</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>241</v>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LATIN AMER. &amp; CARIB    </t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="n">
+      <c r="B6" s="1">
+        <v>237</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2">
         <v>43920</v>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>Saint Kitts and Nevis</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1">
         <v>4</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="H6" s="1">
         <v>2</v>
       </c>
-      <c r="H6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>Imported cases only</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2" t="n">
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
         <v>5163</v>
       </c>
-      <c r="M6" s="2" t="n"/>
-      <c r="N6" s="2" t="n"/>
-      <c r="O6" s="2" t="n"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>71</v>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>241</v>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LATIN AMER. &amp; CARIB    </t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="n">
+      <c r="B7" s="1">
+        <v>237</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>Saint Kitts and Nevis</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>-2</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>Imported cases only</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2" t="n">
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
         <v>5368</v>
       </c>
-      <c r="M7" s="2" t="n"/>
-      <c r="N7" s="2" t="n"/>
-      <c r="O7" s="2" t="n"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
